--- a/output/MODEL/processing-selection-size.xlsx
+++ b/output/MODEL/processing-selection-size.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\School\Master\Thesis\MasterThesis\output\MODEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1361DF4-4049-410C-854A-6592D2258F36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE487F74-FFB8-48C3-B7E2-FD09F21A4F73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="30795" yWindow="3540" windowWidth="21390" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4182,8 +4182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F48" sqref="F47:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6281,47 +6281,47 @@
         <v>2.2560230347149082</v>
       </c>
       <c r="H44">
-        <f>AVERAGE(G3:G7)</f>
+        <f t="shared" ref="G44:R44" si="2">AVERAGE(G3:G7)</f>
         <v>0.6986911182567429</v>
       </c>
       <c r="I44">
-        <f>AVERAGE(H3:H7)</f>
+        <f t="shared" si="2"/>
         <v>0.31941249999999999</v>
       </c>
       <c r="J44">
-        <f>AVERAGE(I3:I7)</f>
+        <f t="shared" si="2"/>
         <v>-0.34160000000000001</v>
       </c>
       <c r="K44">
-        <f>AVERAGE(J3:J7)</f>
+        <f t="shared" si="2"/>
         <v>0.5464089840087889</v>
       </c>
       <c r="L44">
-        <f>AVERAGE(K3:K7)</f>
+        <f t="shared" si="2"/>
         <v>0.18127333333333259</v>
       </c>
       <c r="M44">
-        <f>AVERAGE(L3:L7)</f>
+        <f t="shared" si="2"/>
         <v>-1.8501564179254127E-2</v>
       </c>
       <c r="N44">
-        <f>AVERAGE(M3:M7)</f>
+        <f t="shared" si="2"/>
         <v>-1.7106838649839022E-2</v>
       </c>
       <c r="O44">
-        <f>AVERAGE(N3:N7)</f>
+        <f t="shared" si="2"/>
         <v>-1.325E-3</v>
       </c>
       <c r="P44">
-        <f>AVERAGE(O3:O7)</f>
+        <f t="shared" si="2"/>
         <v>-1.7280731976356923E-2</v>
       </c>
       <c r="Q44">
-        <f>AVERAGE(P3:P7)</f>
+        <f t="shared" si="2"/>
         <v>0.44642011078107463</v>
       </c>
       <c r="R44">
-        <f>AVERAGE(Q3:Q7)</f>
+        <f t="shared" si="2"/>
         <v>0.61516665438682017</v>
       </c>
     </row>
@@ -6342,51 +6342,51 @@
         <v>2.3112694726463117</v>
       </c>
       <c r="G45">
-        <f>AVERAGE(F12:F16)</f>
+        <f t="shared" ref="G45:R45" si="3">AVERAGE(F12:F16)</f>
         <v>2.1417303893769324</v>
       </c>
       <c r="H45">
-        <f>AVERAGE(G12:G16)</f>
+        <f t="shared" si="3"/>
         <v>0.69957559891497301</v>
       </c>
       <c r="I45">
-        <f>AVERAGE(H12:H16)</f>
+        <f t="shared" si="3"/>
         <v>0.31608749999999997</v>
       </c>
       <c r="J45">
-        <f>AVERAGE(I12:I16)</f>
+        <f t="shared" si="3"/>
         <v>-0.34140000000000004</v>
       </c>
       <c r="K45">
-        <f>AVERAGE(J12:J16)</f>
+        <f t="shared" si="3"/>
         <v>0.54184153730036955</v>
       </c>
       <c r="L45">
-        <f>AVERAGE(K12:K16)</f>
+        <f t="shared" si="3"/>
         <v>0.19137333333333198</v>
       </c>
       <c r="M45">
-        <f>AVERAGE(L12:L16)</f>
+        <f t="shared" si="3"/>
         <v>-1.9998835132152316E-2</v>
       </c>
       <c r="N45">
-        <f>AVERAGE(M12:M16)</f>
+        <f t="shared" si="3"/>
         <v>-1.6476306059352679E-2</v>
       </c>
       <c r="O45">
-        <f>AVERAGE(N12:N16)</f>
+        <f t="shared" si="3"/>
         <v>-1.1999999999999997E-3</v>
       </c>
       <c r="P45">
-        <f>AVERAGE(O12:O16)</f>
+        <f t="shared" si="3"/>
         <v>-2.0046306956931902E-2</v>
       </c>
       <c r="Q45">
-        <f>AVERAGE(P12:P16)</f>
+        <f t="shared" si="3"/>
         <v>0.44793683397439699</v>
       </c>
       <c r="R45">
-        <f>AVERAGE(Q12:Q16)</f>
+        <f t="shared" si="3"/>
         <v>0.51357611727167873</v>
       </c>
     </row>
@@ -6407,51 +6407,51 @@
         <v>1.8345511088078499</v>
       </c>
       <c r="G46">
-        <f>AVERAGE(F20:F24)</f>
+        <f t="shared" ref="G46:R46" si="4">AVERAGE(F20:F24)</f>
         <v>1.71221186142329</v>
       </c>
       <c r="H46">
-        <f>AVERAGE(G20:G24)</f>
+        <f t="shared" si="4"/>
         <v>0.6920268641774886</v>
       </c>
       <c r="I46">
-        <f>AVERAGE(H20:H24)</f>
+        <f t="shared" si="4"/>
         <v>0.30916250000000001</v>
       </c>
       <c r="J46">
-        <f>AVERAGE(I20:I24)</f>
+        <f t="shared" si="4"/>
         <v>-0.26250000000000001</v>
       </c>
       <c r="K46">
-        <f>AVERAGE(J20:J24)</f>
+        <f t="shared" si="4"/>
         <v>0.53324240785445409</v>
       </c>
       <c r="L46">
-        <f>AVERAGE(K20:K24)</f>
+        <f t="shared" si="4"/>
         <v>0.13037999999999958</v>
       </c>
       <c r="M46">
-        <f>AVERAGE(L20:L24)</f>
+        <f t="shared" si="4"/>
         <v>-7.6994316357319473E-2</v>
       </c>
       <c r="N46">
-        <f>AVERAGE(M20:M24)</f>
+        <f t="shared" si="4"/>
         <v>-1.6845302510873138E-2</v>
       </c>
       <c r="O46">
-        <f>AVERAGE(N20:N24)</f>
+        <f t="shared" si="4"/>
         <v>-1.175E-3</v>
       </c>
       <c r="P46">
-        <f>AVERAGE(O20:O24)</f>
+        <f t="shared" si="4"/>
         <v>-6.6820690420690415E-2</v>
       </c>
       <c r="Q46">
-        <f>AVERAGE(P20:P24)</f>
+        <f t="shared" si="4"/>
         <v>0.44857316766995153</v>
       </c>
       <c r="R46">
-        <f>AVERAGE(Q20:Q24)</f>
+        <f t="shared" si="4"/>
         <v>0.14550147839484301</v>
       </c>
     </row>
@@ -6472,51 +6472,51 @@
         <v>1.8623069414906559</v>
       </c>
       <c r="G47">
-        <f>AVERAGE(F28:F32)</f>
+        <f t="shared" ref="G47:R47" si="5">AVERAGE(F28:F32)</f>
         <v>2.1196548469031198</v>
       </c>
       <c r="H47">
-        <f>AVERAGE(G28:G32)</f>
+        <f t="shared" si="5"/>
         <v>0.70679652777777746</v>
       </c>
       <c r="I47">
-        <f>AVERAGE(H28:H32)</f>
+        <f t="shared" si="5"/>
         <v>0.33752499999999996</v>
       </c>
       <c r="J47">
-        <f>AVERAGE(I28:I32)</f>
+        <f t="shared" si="5"/>
         <v>-8.0200000000000007E-2</v>
       </c>
       <c r="K47">
-        <f>AVERAGE(J28:J32)</f>
+        <f t="shared" si="5"/>
         <v>0.55930989530072428</v>
       </c>
       <c r="L47">
-        <f>AVERAGE(K28:K32)</f>
+        <f t="shared" si="5"/>
         <v>0.10052666666666599</v>
       </c>
       <c r="M47">
-        <f>AVERAGE(L28:L32)</f>
+        <f t="shared" si="5"/>
         <v>-0.1232289012040894</v>
       </c>
       <c r="N47">
-        <f>AVERAGE(M28:M32)</f>
+        <f t="shared" si="5"/>
         <v>-1.7159546437728799E-2</v>
       </c>
       <c r="O47">
-        <f>AVERAGE(N28:N32)</f>
+        <f t="shared" si="5"/>
         <v>-1.5000000000000001E-4</v>
       </c>
       <c r="P47">
-        <f>AVERAGE(O28:O32)</f>
+        <f t="shared" si="5"/>
         <v>-0.14417958421786525</v>
       </c>
       <c r="Q47">
-        <f>AVERAGE(P28:P32)</f>
+        <f t="shared" si="5"/>
         <v>0.44548752886801246</v>
       </c>
       <c r="R47">
-        <f>AVERAGE(Q28:Q32)</f>
+        <f t="shared" si="5"/>
         <v>7.5822401707552944E-2</v>
       </c>
     </row>
@@ -6529,11 +6529,11 @@
         <v>16.822140917141887</v>
       </c>
       <c r="E48">
-        <f t="shared" ref="E48:F48" si="2">SUM(E44:E47)</f>
+        <f t="shared" ref="E48:F48" si="6">SUM(E44:E47)</f>
         <v>8.2532363593630087E-2</v>
       </c>
       <c r="F48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.419686088906122</v>
       </c>
     </row>
@@ -6543,369 +6543,369 @@
         <v>4.51</v>
       </c>
       <c r="E51">
-        <f t="shared" ref="E51:R51" si="3">ROUND(E44,2)</f>
+        <f t="shared" ref="E51:R51" si="7">ROUND(E44,2)</f>
         <v>0.27</v>
       </c>
       <c r="F51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.41</v>
       </c>
       <c r="G51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.2599999999999998</v>
       </c>
       <c r="H51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
       <c r="I51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.32</v>
       </c>
       <c r="J51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-0.34</v>
       </c>
       <c r="K51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="L51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.18</v>
       </c>
       <c r="M51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-0.02</v>
       </c>
       <c r="N51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-0.02</v>
       </c>
       <c r="O51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-0.02</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.45</v>
       </c>
       <c r="R51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.62</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D52">
-        <f t="shared" ref="D52:R52" si="4">ROUND(D45,2)</f>
+        <f t="shared" ref="D52:R52" si="8">ROUND(D45,2)</f>
         <v>4.53</v>
       </c>
       <c r="E52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
       <c r="F52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.31</v>
       </c>
       <c r="G52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.14</v>
       </c>
       <c r="H52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.7</v>
       </c>
       <c r="I52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.32</v>
       </c>
       <c r="J52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-0.34</v>
       </c>
       <c r="K52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.54</v>
       </c>
       <c r="L52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.19</v>
       </c>
       <c r="M52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-0.02</v>
       </c>
       <c r="N52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-0.02</v>
       </c>
       <c r="O52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>-0.02</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.45</v>
       </c>
       <c r="R52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.51</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D53">
-        <f t="shared" ref="D53:R53" si="5">ROUND(D46,2)</f>
+        <f t="shared" ref="D53:R53" si="9">ROUND(D46,2)</f>
         <v>3.96</v>
       </c>
       <c r="E53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-0.1</v>
       </c>
       <c r="F53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.83</v>
       </c>
       <c r="G53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1.71</v>
       </c>
       <c r="H53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.69</v>
       </c>
       <c r="I53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.31</v>
       </c>
       <c r="J53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-0.26</v>
       </c>
       <c r="K53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.53</v>
       </c>
       <c r="L53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.13</v>
       </c>
       <c r="M53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-0.08</v>
       </c>
       <c r="N53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-0.02</v>
       </c>
       <c r="O53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.45</v>
       </c>
       <c r="R53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.15</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D54">
-        <f t="shared" ref="D54:R54" si="6">ROUND(D47,2)</f>
+        <f t="shared" ref="D54:R54" si="10">ROUND(D47,2)</f>
         <v>3.83</v>
       </c>
       <c r="E54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-0.19</v>
       </c>
       <c r="F54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.86</v>
       </c>
       <c r="G54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.12</v>
       </c>
       <c r="H54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.71</v>
       </c>
       <c r="I54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.34</v>
       </c>
       <c r="J54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-0.08</v>
       </c>
       <c r="K54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="L54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
       <c r="M54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-0.12</v>
       </c>
       <c r="N54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-0.02</v>
       </c>
       <c r="O54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>-0.14000000000000001</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.45</v>
       </c>
       <c r="R54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.08</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D55">
-        <f t="shared" ref="D55:R55" si="7">ROUND(D48,2)</f>
+        <f t="shared" ref="D55:R55" si="11">ROUND(D48,2)</f>
         <v>16.82</v>
       </c>
       <c r="E55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.08</v>
       </c>
       <c r="F55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8.42</v>
       </c>
       <c r="G55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D56">
-        <f t="shared" ref="D56:R56" si="8">ROUND(D49,2)</f>
+        <f t="shared" ref="D56:R56" si="12">ROUND(D49,2)</f>
         <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
